--- a/s1cDNASample/s1cDNASample_H.BROWN_06.01.20.xlsx
+++ b/s1cDNASample/s1cDNASample_H.BROWN_06.01.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82DD542-1C65-BF46-9727-8CBA7FD3B164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8135CC-9614-5941-86BB-A0EA2D10C2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17080" yWindow="460" windowWidth="16380" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>H.BROWN</t>
   </si>
   <si>
-    <t>NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
     <t>E7420L</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>06.01.20</t>
+  </si>
+  <si>
+    <t>E7490L</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D27"/>
+      <selection activeCell="G3" sqref="G3:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -492,21 +492,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -524,21 +524,21 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -556,21 +556,21 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -588,21 +588,21 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -620,21 +620,21 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -652,21 +652,21 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -675,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -684,21 +684,21 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -716,21 +716,21 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -748,21 +748,21 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -771,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -780,21 +780,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -812,21 +812,21 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -844,21 +844,21 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -867,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -876,21 +876,21 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -899,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -908,21 +908,21 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -931,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -940,21 +940,21 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -963,7 +963,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -972,21 +972,21 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -995,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1004,21 +1004,21 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1027,7 +1027,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -1036,21 +1036,21 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1059,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1068,21 +1068,21 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1091,7 +1091,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -1100,21 +1100,21 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1123,7 +1123,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1132,21 +1132,21 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1155,7 +1155,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -1164,21 +1164,21 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1187,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1196,21 +1196,21 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1219,7 +1219,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1228,21 +1228,21 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1251,7 +1251,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1260,21 +1260,21 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1283,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1292,16 +1292,16 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
